--- a/AAII_Financials/Quarterly/MGYOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MGYOY_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5873600</v>
+        <v>5832700</v>
       </c>
       <c r="E8" s="3">
-        <v>7357800</v>
+        <v>7306600</v>
       </c>
       <c r="F8" s="3">
-        <v>8265800</v>
+        <v>8208200</v>
       </c>
       <c r="G8" s="3">
-        <v>7149300</v>
+        <v>7099400</v>
       </c>
       <c r="H8" s="3">
-        <v>5463500</v>
+        <v>5425400</v>
       </c>
       <c r="I8" s="3">
-        <v>4746600</v>
+        <v>4713500</v>
       </c>
       <c r="J8" s="3">
-        <v>4643900</v>
+        <v>4611500</v>
       </c>
       <c r="K8" s="3">
         <v>4054100</v>
@@ -743,25 +743,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4530200</v>
+        <v>4498600</v>
       </c>
       <c r="E9" s="3">
-        <v>5560600</v>
+        <v>5521800</v>
       </c>
       <c r="F9" s="3">
-        <v>6007500</v>
+        <v>5965600</v>
       </c>
       <c r="G9" s="3">
-        <v>5000300</v>
+        <v>4965400</v>
       </c>
       <c r="H9" s="3">
-        <v>4015700</v>
+        <v>3987800</v>
       </c>
       <c r="I9" s="3">
-        <v>3471600</v>
+        <v>3447500</v>
       </c>
       <c r="J9" s="3">
-        <v>3326900</v>
+        <v>3303800</v>
       </c>
       <c r="K9" s="3">
         <v>2874900</v>
@@ -772,25 +772,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1343400</v>
+        <v>1334100</v>
       </c>
       <c r="E10" s="3">
-        <v>1797300</v>
+        <v>1784700</v>
       </c>
       <c r="F10" s="3">
-        <v>2258300</v>
+        <v>2242600</v>
       </c>
       <c r="G10" s="3">
-        <v>2149000</v>
+        <v>2134000</v>
       </c>
       <c r="H10" s="3">
-        <v>1447700</v>
+        <v>1437600</v>
       </c>
       <c r="I10" s="3">
-        <v>1274900</v>
+        <v>1266000</v>
       </c>
       <c r="J10" s="3">
-        <v>1316900</v>
+        <v>1307700</v>
       </c>
       <c r="K10" s="3">
         <v>1179200</v>
@@ -901,25 +901,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>278900</v>
+        <v>276900</v>
       </c>
       <c r="E15" s="3">
-        <v>515900</v>
+        <v>512400</v>
       </c>
       <c r="F15" s="3">
-        <v>361600</v>
+        <v>359100</v>
       </c>
       <c r="G15" s="3">
-        <v>307700</v>
+        <v>305600</v>
       </c>
       <c r="H15" s="3">
-        <v>182500</v>
+        <v>181300</v>
       </c>
       <c r="I15" s="3">
-        <v>422800</v>
+        <v>419800</v>
       </c>
       <c r="J15" s="3">
-        <v>295500</v>
+        <v>293500</v>
       </c>
       <c r="K15" s="3">
         <v>329300</v>
@@ -940,25 +940,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5370500</v>
+        <v>5333100</v>
       </c>
       <c r="E17" s="3">
-        <v>6730600</v>
+        <v>6683700</v>
       </c>
       <c r="F17" s="3">
-        <v>6988600</v>
+        <v>6939900</v>
       </c>
       <c r="G17" s="3">
-        <v>6099100</v>
+        <v>6056600</v>
       </c>
       <c r="H17" s="3">
-        <v>4807400</v>
+        <v>4773900</v>
       </c>
       <c r="I17" s="3">
-        <v>4326100</v>
+        <v>4296000</v>
       </c>
       <c r="J17" s="3">
-        <v>4131300</v>
+        <v>4102500</v>
       </c>
       <c r="K17" s="3">
         <v>3650600</v>
@@ -969,25 +969,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>503000</v>
+        <v>499500</v>
       </c>
       <c r="E18" s="3">
-        <v>627200</v>
+        <v>622900</v>
       </c>
       <c r="F18" s="3">
-        <v>1277200</v>
+        <v>1268300</v>
       </c>
       <c r="G18" s="3">
-        <v>1050100</v>
+        <v>1042800</v>
       </c>
       <c r="H18" s="3">
-        <v>656000</v>
+        <v>651500</v>
       </c>
       <c r="I18" s="3">
-        <v>420400</v>
+        <v>417500</v>
       </c>
       <c r="J18" s="3">
-        <v>512500</v>
+        <v>509000</v>
       </c>
       <c r="K18" s="3">
         <v>403500</v>
@@ -1011,25 +1011,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>60400</v>
+        <v>60000</v>
       </c>
       <c r="E20" s="3">
-        <v>-75000</v>
+        <v>-74500</v>
       </c>
       <c r="F20" s="3">
-        <v>-173000</v>
+        <v>-171800</v>
       </c>
       <c r="G20" s="3">
-        <v>-56400</v>
+        <v>-56000</v>
       </c>
       <c r="H20" s="3">
         <v>8300</v>
       </c>
       <c r="I20" s="3">
-        <v>-9800</v>
+        <v>-9700</v>
       </c>
       <c r="J20" s="3">
-        <v>-80800</v>
+        <v>-80300</v>
       </c>
       <c r="K20" s="3">
         <v>76800</v>
@@ -1040,25 +1040,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>842300</v>
+        <v>836500</v>
       </c>
       <c r="E21" s="3">
-        <v>1068100</v>
+        <v>1060700</v>
       </c>
       <c r="F21" s="3">
-        <v>1465600</v>
+        <v>1455400</v>
       </c>
       <c r="G21" s="3">
-        <v>1298400</v>
+        <v>1289300</v>
       </c>
       <c r="H21" s="3">
-        <v>797500</v>
+        <v>792000</v>
       </c>
       <c r="I21" s="3">
-        <v>842300</v>
+        <v>836400</v>
       </c>
       <c r="J21" s="3">
-        <v>754300</v>
+        <v>749000</v>
       </c>
       <c r="K21" s="3">
         <v>834900</v>
@@ -1098,25 +1098,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>563500</v>
+        <v>559500</v>
       </c>
       <c r="E23" s="3">
-        <v>552200</v>
+        <v>548300</v>
       </c>
       <c r="F23" s="3">
-        <v>1104200</v>
+        <v>1096500</v>
       </c>
       <c r="G23" s="3">
-        <v>993700</v>
+        <v>986800</v>
       </c>
       <c r="H23" s="3">
-        <v>664400</v>
+        <v>659800</v>
       </c>
       <c r="I23" s="3">
-        <v>410700</v>
+        <v>407800</v>
       </c>
       <c r="J23" s="3">
-        <v>431700</v>
+        <v>428700</v>
       </c>
       <c r="K23" s="3">
         <v>480300</v>
@@ -1127,25 +1127,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>104800</v>
+        <v>104000</v>
       </c>
       <c r="E24" s="3">
-        <v>687100</v>
+        <v>682300</v>
       </c>
       <c r="F24" s="3">
-        <v>261000</v>
+        <v>259200</v>
       </c>
       <c r="G24" s="3">
-        <v>209700</v>
+        <v>208200</v>
       </c>
       <c r="H24" s="3">
-        <v>180300</v>
+        <v>179000</v>
       </c>
       <c r="I24" s="3">
-        <v>103800</v>
+        <v>103100</v>
       </c>
       <c r="J24" s="3">
-        <v>54200</v>
+        <v>53800</v>
       </c>
       <c r="K24" s="3">
         <v>-60300</v>
@@ -1185,25 +1185,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>458700</v>
+        <v>455500</v>
       </c>
       <c r="E26" s="3">
-        <v>-134900</v>
+        <v>-134000</v>
       </c>
       <c r="F26" s="3">
-        <v>843200</v>
+        <v>837300</v>
       </c>
       <c r="G26" s="3">
-        <v>784100</v>
+        <v>778600</v>
       </c>
       <c r="H26" s="3">
-        <v>484100</v>
+        <v>480700</v>
       </c>
       <c r="I26" s="3">
-        <v>306800</v>
+        <v>304700</v>
       </c>
       <c r="J26" s="3">
-        <v>377500</v>
+        <v>374900</v>
       </c>
       <c r="K26" s="3">
         <v>540600</v>
@@ -1214,25 +1214,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>477600</v>
+        <v>474300</v>
       </c>
       <c r="E27" s="3">
-        <v>-63500</v>
+        <v>-63100</v>
       </c>
       <c r="F27" s="3">
-        <v>752200</v>
+        <v>747000</v>
       </c>
       <c r="G27" s="3">
-        <v>716100</v>
+        <v>711100</v>
       </c>
       <c r="H27" s="3">
-        <v>397300</v>
+        <v>394500</v>
       </c>
       <c r="I27" s="3">
-        <v>304300</v>
+        <v>302200</v>
       </c>
       <c r="J27" s="3">
-        <v>342500</v>
+        <v>340100</v>
       </c>
       <c r="K27" s="3">
         <v>511500</v>
@@ -1275,22 +1275,22 @@
         <v>2200</v>
       </c>
       <c r="E29" s="3">
-        <v>265900</v>
+        <v>264100</v>
       </c>
       <c r="F29" s="3">
-        <v>81800</v>
+        <v>81200</v>
       </c>
       <c r="G29" s="3">
-        <v>139200</v>
+        <v>138300</v>
       </c>
       <c r="H29" s="3">
-        <v>153900</v>
+        <v>152800</v>
       </c>
       <c r="I29" s="3">
-        <v>14400</v>
+        <v>14300</v>
       </c>
       <c r="J29" s="3">
-        <v>57100</v>
+        <v>56700</v>
       </c>
       <c r="K29" s="3">
         <v>21900</v>
@@ -1359,25 +1359,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-60400</v>
+        <v>-60000</v>
       </c>
       <c r="E32" s="3">
-        <v>75000</v>
+        <v>74500</v>
       </c>
       <c r="F32" s="3">
-        <v>173000</v>
+        <v>171800</v>
       </c>
       <c r="G32" s="3">
-        <v>56400</v>
+        <v>56000</v>
       </c>
       <c r="H32" s="3">
         <v>-8300</v>
       </c>
       <c r="I32" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="J32" s="3">
-        <v>80800</v>
+        <v>80300</v>
       </c>
       <c r="K32" s="3">
         <v>-76800</v>
@@ -1388,25 +1388,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>479800</v>
+        <v>476500</v>
       </c>
       <c r="E33" s="3">
-        <v>202400</v>
+        <v>201000</v>
       </c>
       <c r="F33" s="3">
-        <v>834000</v>
+        <v>828200</v>
       </c>
       <c r="G33" s="3">
-        <v>855300</v>
+        <v>849300</v>
       </c>
       <c r="H33" s="3">
-        <v>551100</v>
+        <v>547300</v>
       </c>
       <c r="I33" s="3">
-        <v>318700</v>
+        <v>316500</v>
       </c>
       <c r="J33" s="3">
-        <v>399600</v>
+        <v>396800</v>
       </c>
       <c r="K33" s="3">
         <v>533400</v>
@@ -1446,25 +1446,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>479800</v>
+        <v>476500</v>
       </c>
       <c r="E35" s="3">
-        <v>202400</v>
+        <v>201000</v>
       </c>
       <c r="F35" s="3">
-        <v>834000</v>
+        <v>828200</v>
       </c>
       <c r="G35" s="3">
-        <v>855300</v>
+        <v>849300</v>
       </c>
       <c r="H35" s="3">
-        <v>551100</v>
+        <v>547300</v>
       </c>
       <c r="I35" s="3">
-        <v>318700</v>
+        <v>316500</v>
       </c>
       <c r="J35" s="3">
-        <v>399600</v>
+        <v>396800</v>
       </c>
       <c r="K35" s="3">
         <v>533400</v>
@@ -1535,25 +1535,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1460400</v>
+        <v>1450200</v>
       </c>
       <c r="E41" s="3">
-        <v>1708400</v>
+        <v>1696400</v>
       </c>
       <c r="F41" s="3">
-        <v>1727600</v>
+        <v>1715600</v>
       </c>
       <c r="G41" s="3">
-        <v>2300300</v>
+        <v>2284300</v>
       </c>
       <c r="H41" s="3">
-        <v>1430900</v>
+        <v>1421000</v>
       </c>
       <c r="I41" s="3">
-        <v>1054600</v>
+        <v>1047200</v>
       </c>
       <c r="J41" s="3">
-        <v>968000</v>
+        <v>961200</v>
       </c>
       <c r="K41" s="3">
         <v>811100</v>
@@ -1564,25 +1564,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>762800</v>
+        <v>757500</v>
       </c>
       <c r="E42" s="3">
-        <v>519500</v>
+        <v>515900</v>
       </c>
       <c r="F42" s="3">
-        <v>354800</v>
+        <v>352400</v>
       </c>
       <c r="G42" s="3">
-        <v>442600</v>
+        <v>439600</v>
       </c>
       <c r="H42" s="3">
-        <v>384800</v>
+        <v>382100</v>
       </c>
       <c r="I42" s="3">
-        <v>173400</v>
+        <v>172100</v>
       </c>
       <c r="J42" s="3">
-        <v>168700</v>
+        <v>167500</v>
       </c>
       <c r="K42" s="3">
         <v>120400</v>
@@ -1593,25 +1593,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2642700</v>
+        <v>2624300</v>
       </c>
       <c r="E43" s="3">
-        <v>2730600</v>
+        <v>2711500</v>
       </c>
       <c r="F43" s="3">
-        <v>3560000</v>
+        <v>3535200</v>
       </c>
       <c r="G43" s="3">
-        <v>3513500</v>
+        <v>3489000</v>
       </c>
       <c r="H43" s="3">
-        <v>3222000</v>
+        <v>3199500</v>
       </c>
       <c r="I43" s="3">
-        <v>2189900</v>
+        <v>2174600</v>
       </c>
       <c r="J43" s="3">
-        <v>2241900</v>
+        <v>2226300</v>
       </c>
       <c r="K43" s="3">
         <v>2064000</v>
@@ -1622,25 +1622,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2437800</v>
+        <v>2420800</v>
       </c>
       <c r="E44" s="3">
-        <v>2861500</v>
+        <v>2841600</v>
       </c>
       <c r="F44" s="3">
-        <v>3403900</v>
+        <v>3380200</v>
       </c>
       <c r="G44" s="3">
-        <v>2963600</v>
+        <v>2942900</v>
       </c>
       <c r="H44" s="3">
-        <v>2524600</v>
+        <v>2507000</v>
       </c>
       <c r="I44" s="3">
-        <v>2017000</v>
+        <v>2003000</v>
       </c>
       <c r="J44" s="3">
-        <v>1733200</v>
+        <v>1721200</v>
       </c>
       <c r="K44" s="3">
         <v>1727500</v>
@@ -1651,25 +1651,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>364600</v>
+        <v>362000</v>
       </c>
       <c r="E45" s="3">
-        <v>391800</v>
+        <v>389000</v>
       </c>
       <c r="F45" s="3">
-        <v>828500</v>
+        <v>822800</v>
       </c>
       <c r="G45" s="3">
-        <v>780800</v>
+        <v>775300</v>
       </c>
       <c r="H45" s="3">
-        <v>652100</v>
+        <v>647600</v>
       </c>
       <c r="I45" s="3">
-        <v>283100</v>
+        <v>281100</v>
       </c>
       <c r="J45" s="3">
-        <v>209100</v>
+        <v>207600</v>
       </c>
       <c r="K45" s="3">
         <v>235100</v>
@@ -1680,25 +1680,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7668300</v>
+        <v>7614900</v>
       </c>
       <c r="E46" s="3">
-        <v>8211700</v>
+        <v>8154500</v>
       </c>
       <c r="F46" s="3">
-        <v>9874900</v>
+        <v>9806000</v>
       </c>
       <c r="G46" s="3">
-        <v>10000800</v>
+        <v>9931100</v>
       </c>
       <c r="H46" s="3">
-        <v>8214500</v>
+        <v>8157200</v>
       </c>
       <c r="I46" s="3">
-        <v>5717900</v>
+        <v>5678000</v>
       </c>
       <c r="J46" s="3">
-        <v>5320900</v>
+        <v>5283800</v>
       </c>
       <c r="K46" s="3">
         <v>4958100</v>
@@ -1709,25 +1709,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1434300</v>
+        <v>1424300</v>
       </c>
       <c r="E47" s="3">
-        <v>1502600</v>
+        <v>1492200</v>
       </c>
       <c r="F47" s="3">
-        <v>1700900</v>
+        <v>1689000</v>
       </c>
       <c r="G47" s="3">
-        <v>1464900</v>
+        <v>1454700</v>
       </c>
       <c r="H47" s="3">
-        <v>1298200</v>
+        <v>1289200</v>
       </c>
       <c r="I47" s="3">
-        <v>1258100</v>
+        <v>1249300</v>
       </c>
       <c r="J47" s="3">
-        <v>1169100</v>
+        <v>1160900</v>
       </c>
       <c r="K47" s="3">
         <v>1082700</v>
@@ -1738,25 +1738,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10657500</v>
+        <v>10583200</v>
       </c>
       <c r="E48" s="3">
-        <v>10984500</v>
+        <v>10907900</v>
       </c>
       <c r="F48" s="3">
-        <v>10963700</v>
+        <v>10887300</v>
       </c>
       <c r="G48" s="3">
-        <v>10427200</v>
+        <v>10354500</v>
       </c>
       <c r="H48" s="3">
-        <v>9825300</v>
+        <v>9756900</v>
       </c>
       <c r="I48" s="3">
-        <v>9717000</v>
+        <v>9649300</v>
       </c>
       <c r="J48" s="3">
-        <v>9277800</v>
+        <v>9213200</v>
       </c>
       <c r="K48" s="3">
         <v>9095900</v>
@@ -1767,25 +1767,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1515200</v>
+        <v>1504700</v>
       </c>
       <c r="E49" s="3">
-        <v>1585900</v>
+        <v>1574900</v>
       </c>
       <c r="F49" s="3">
-        <v>1371600</v>
+        <v>1362000</v>
       </c>
       <c r="G49" s="3">
-        <v>1260200</v>
+        <v>1251400</v>
       </c>
       <c r="H49" s="3">
-        <v>1265300</v>
+        <v>1256500</v>
       </c>
       <c r="I49" s="3">
-        <v>1256600</v>
+        <v>1247800</v>
       </c>
       <c r="J49" s="3">
-        <v>1113900</v>
+        <v>1106200</v>
       </c>
       <c r="K49" s="3">
         <v>1077200</v>
@@ -1854,25 +1854,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>570300</v>
+        <v>566300</v>
       </c>
       <c r="E52" s="3">
-        <v>582600</v>
+        <v>578500</v>
       </c>
       <c r="F52" s="3">
-        <v>617000</v>
+        <v>612700</v>
       </c>
       <c r="G52" s="3">
-        <v>642200</v>
+        <v>637700</v>
       </c>
       <c r="H52" s="3">
-        <v>576000</v>
+        <v>572000</v>
       </c>
       <c r="I52" s="3">
-        <v>717300</v>
+        <v>712300</v>
       </c>
       <c r="J52" s="3">
-        <v>744100</v>
+        <v>738900</v>
       </c>
       <c r="K52" s="3">
         <v>733000</v>
@@ -1912,25 +1912,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21845600</v>
+        <v>21693400</v>
       </c>
       <c r="E54" s="3">
-        <v>22867300</v>
+        <v>22707900</v>
       </c>
       <c r="F54" s="3">
-        <v>24528000</v>
+        <v>24357100</v>
       </c>
       <c r="G54" s="3">
-        <v>23795200</v>
+        <v>23629400</v>
       </c>
       <c r="H54" s="3">
-        <v>21179300</v>
+        <v>21031700</v>
       </c>
       <c r="I54" s="3">
-        <v>18667000</v>
+        <v>18536900</v>
       </c>
       <c r="J54" s="3">
-        <v>17625800</v>
+        <v>17503000</v>
       </c>
       <c r="K54" s="3">
         <v>16946900</v>
@@ -1967,25 +1967,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2170800</v>
+        <v>2155700</v>
       </c>
       <c r="E57" s="3">
-        <v>2874700</v>
+        <v>2854700</v>
       </c>
       <c r="F57" s="3">
-        <v>3042300</v>
+        <v>3021100</v>
       </c>
       <c r="G57" s="3">
-        <v>3023700</v>
+        <v>3002600</v>
       </c>
       <c r="H57" s="3">
-        <v>2826200</v>
+        <v>2806500</v>
       </c>
       <c r="I57" s="3">
-        <v>2434500</v>
+        <v>2417500</v>
       </c>
       <c r="J57" s="3">
-        <v>1903200</v>
+        <v>1890000</v>
       </c>
       <c r="K57" s="3">
         <v>2016700</v>
@@ -1996,25 +1996,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>945900</v>
+        <v>939300</v>
       </c>
       <c r="E58" s="3">
-        <v>1345100</v>
+        <v>1335800</v>
       </c>
       <c r="F58" s="3">
-        <v>1540200</v>
+        <v>1529500</v>
       </c>
       <c r="G58" s="3">
-        <v>1579400</v>
+        <v>1568400</v>
       </c>
       <c r="H58" s="3">
-        <v>499600</v>
+        <v>496200</v>
       </c>
       <c r="I58" s="3">
-        <v>532700</v>
+        <v>529000</v>
       </c>
       <c r="J58" s="3">
-        <v>1005600</v>
+        <v>998600</v>
       </c>
       <c r="K58" s="3">
         <v>929900</v>
@@ -2025,25 +2025,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3194200</v>
+        <v>3171900</v>
       </c>
       <c r="E59" s="3">
-        <v>3047900</v>
+        <v>3026600</v>
       </c>
       <c r="F59" s="3">
-        <v>3163000</v>
+        <v>3141000</v>
       </c>
       <c r="G59" s="3">
-        <v>3834400</v>
+        <v>3807700</v>
       </c>
       <c r="H59" s="3">
-        <v>2898600</v>
+        <v>2878400</v>
       </c>
       <c r="I59" s="3">
-        <v>1799000</v>
+        <v>1786500</v>
       </c>
       <c r="J59" s="3">
-        <v>1869300</v>
+        <v>1856300</v>
       </c>
       <c r="K59" s="3">
         <v>1866100</v>
@@ -2054,25 +2054,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6310900</v>
+        <v>6266900</v>
       </c>
       <c r="E60" s="3">
-        <v>7267700</v>
+        <v>7217000</v>
       </c>
       <c r="F60" s="3">
-        <v>7745500</v>
+        <v>7691600</v>
       </c>
       <c r="G60" s="3">
-        <v>8437500</v>
+        <v>8378700</v>
       </c>
       <c r="H60" s="3">
-        <v>6224400</v>
+        <v>6181000</v>
       </c>
       <c r="I60" s="3">
-        <v>4766200</v>
+        <v>4733000</v>
       </c>
       <c r="J60" s="3">
-        <v>4778200</v>
+        <v>4744900</v>
       </c>
       <c r="K60" s="3">
         <v>4812700</v>
@@ -2083,25 +2083,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1799600</v>
+        <v>1787000</v>
       </c>
       <c r="E61" s="3">
-        <v>1866700</v>
+        <v>1853700</v>
       </c>
       <c r="F61" s="3">
-        <v>2110100</v>
+        <v>2095400</v>
       </c>
       <c r="G61" s="3">
-        <v>2507600</v>
+        <v>2490200</v>
       </c>
       <c r="H61" s="3">
-        <v>3146700</v>
+        <v>3124800</v>
       </c>
       <c r="I61" s="3">
-        <v>2486800</v>
+        <v>2469500</v>
       </c>
       <c r="J61" s="3">
-        <v>2087300</v>
+        <v>2072700</v>
       </c>
       <c r="K61" s="3">
         <v>2097700</v>
@@ -2112,25 +2112,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2168700</v>
+        <v>2153600</v>
       </c>
       <c r="E62" s="3">
-        <v>2218100</v>
+        <v>2202600</v>
       </c>
       <c r="F62" s="3">
-        <v>2625600</v>
+        <v>2607300</v>
       </c>
       <c r="G62" s="3">
-        <v>2492200</v>
+        <v>2474800</v>
       </c>
       <c r="H62" s="3">
-        <v>2312400</v>
+        <v>2296200</v>
       </c>
       <c r="I62" s="3">
-        <v>2651800</v>
+        <v>2633300</v>
       </c>
       <c r="J62" s="3">
-        <v>2470000</v>
+        <v>2452800</v>
       </c>
       <c r="K62" s="3">
         <v>2415300</v>
@@ -2228,25 +2228,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11289600</v>
+        <v>11210900</v>
       </c>
       <c r="E66" s="3">
-        <v>12439500</v>
+        <v>12352800</v>
       </c>
       <c r="F66" s="3">
-        <v>13662800</v>
+        <v>13567600</v>
       </c>
       <c r="G66" s="3">
-        <v>14461900</v>
+        <v>14361100</v>
       </c>
       <c r="H66" s="3">
-        <v>12632800</v>
+        <v>12544800</v>
       </c>
       <c r="I66" s="3">
-        <v>10696500</v>
+        <v>10622000</v>
       </c>
       <c r="J66" s="3">
-        <v>10177800</v>
+        <v>10106900</v>
       </c>
       <c r="K66" s="3">
         <v>10111000</v>
@@ -2386,25 +2386,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10328800</v>
+        <v>10256900</v>
       </c>
       <c r="E72" s="3">
-        <v>7631300</v>
+        <v>7578100</v>
       </c>
       <c r="F72" s="3">
-        <v>10638500</v>
+        <v>10564400</v>
       </c>
       <c r="G72" s="3">
-        <v>6552200</v>
+        <v>6506500</v>
       </c>
       <c r="H72" s="3">
-        <v>8319800</v>
+        <v>8261800</v>
       </c>
       <c r="I72" s="3">
-        <v>5675900</v>
+        <v>5636300</v>
       </c>
       <c r="J72" s="3">
-        <v>7223700</v>
+        <v>7173300</v>
       </c>
       <c r="K72" s="3">
         <v>4954000</v>
@@ -2502,25 +2502,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10556000</v>
+        <v>10482500</v>
       </c>
       <c r="E76" s="3">
-        <v>10427800</v>
+        <v>10355100</v>
       </c>
       <c r="F76" s="3">
-        <v>10865300</v>
+        <v>10789600</v>
       </c>
       <c r="G76" s="3">
-        <v>9333300</v>
+        <v>9268300</v>
       </c>
       <c r="H76" s="3">
-        <v>8546500</v>
+        <v>8487000</v>
       </c>
       <c r="I76" s="3">
-        <v>7970400</v>
+        <v>7914900</v>
       </c>
       <c r="J76" s="3">
-        <v>7448000</v>
+        <v>7396100</v>
       </c>
       <c r="K76" s="3">
         <v>6835900</v>
@@ -2594,25 +2594,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>479800</v>
+        <v>476500</v>
       </c>
       <c r="E81" s="3">
-        <v>202400</v>
+        <v>201000</v>
       </c>
       <c r="F81" s="3">
-        <v>834000</v>
+        <v>828200</v>
       </c>
       <c r="G81" s="3">
-        <v>855300</v>
+        <v>849300</v>
       </c>
       <c r="H81" s="3">
-        <v>551100</v>
+        <v>547300</v>
       </c>
       <c r="I81" s="3">
-        <v>318700</v>
+        <v>316500</v>
       </c>
       <c r="J81" s="3">
-        <v>399600</v>
+        <v>396800</v>
       </c>
       <c r="K81" s="3">
         <v>533400</v>
@@ -2636,25 +2636,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>278900</v>
+        <v>276900</v>
       </c>
       <c r="E83" s="3">
-        <v>515900</v>
+        <v>512400</v>
       </c>
       <c r="F83" s="3">
-        <v>361400</v>
+        <v>358900</v>
       </c>
       <c r="G83" s="3">
-        <v>286100</v>
+        <v>284100</v>
       </c>
       <c r="H83" s="3">
-        <v>151700</v>
+        <v>150600</v>
       </c>
       <c r="I83" s="3">
-        <v>431700</v>
+        <v>428700</v>
       </c>
       <c r="J83" s="3">
-        <v>322600</v>
+        <v>320300</v>
       </c>
       <c r="K83" s="3">
         <v>354500</v>
@@ -2810,25 +2810,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>768100</v>
+        <v>762800</v>
       </c>
       <c r="E89" s="3">
-        <v>1806200</v>
+        <v>1793600</v>
       </c>
       <c r="F89" s="3">
-        <v>1180600</v>
+        <v>1172400</v>
       </c>
       <c r="G89" s="3">
-        <v>1012100</v>
+        <v>1005000</v>
       </c>
       <c r="H89" s="3">
-        <v>-13200</v>
+        <v>-13100</v>
       </c>
       <c r="I89" s="3">
-        <v>863100</v>
+        <v>857100</v>
       </c>
       <c r="J89" s="3">
-        <v>674000</v>
+        <v>669300</v>
       </c>
       <c r="K89" s="3">
         <v>985500</v>
@@ -2939,25 +2939,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-572600</v>
+        <v>-568600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1234100</v>
+        <v>-1225500</v>
       </c>
       <c r="F94" s="3">
-        <v>-468100</v>
+        <v>-464800</v>
       </c>
       <c r="G94" s="3">
-        <v>-387500</v>
+        <v>-384800</v>
       </c>
       <c r="H94" s="3">
-        <v>-362800</v>
+        <v>-360200</v>
       </c>
       <c r="I94" s="3">
-        <v>-517500</v>
+        <v>-513900</v>
       </c>
       <c r="J94" s="3">
-        <v>-293200</v>
+        <v>-291100</v>
       </c>
       <c r="K94" s="3">
         <v>-297100</v>
@@ -2987,7 +2987,7 @@
         <v>-100</v>
       </c>
       <c r="F96" s="3">
-        <v>-548700</v>
+        <v>-544900</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-181400</v>
+        <v>-180100</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3097,25 +3097,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-312800</v>
+        <v>-310600</v>
       </c>
       <c r="E100" s="3">
-        <v>-404000</v>
+        <v>-401200</v>
       </c>
       <c r="F100" s="3">
-        <v>-1527300</v>
+        <v>-1516700</v>
       </c>
       <c r="G100" s="3">
-        <v>115600</v>
+        <v>114800</v>
       </c>
       <c r="H100" s="3">
-        <v>727200</v>
+        <v>722200</v>
       </c>
       <c r="I100" s="3">
-        <v>-274500</v>
+        <v>-272600</v>
       </c>
       <c r="J100" s="3">
-        <v>-238400</v>
+        <v>-236700</v>
       </c>
       <c r="K100" s="3">
         <v>-285100</v>
@@ -3126,25 +3126,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-132600</v>
+        <v>-131700</v>
       </c>
       <c r="E101" s="3">
-        <v>-191000</v>
+        <v>-189600</v>
       </c>
       <c r="F101" s="3">
-        <v>226300</v>
+        <v>224700</v>
       </c>
       <c r="G101" s="3">
-        <v>147100</v>
+        <v>146100</v>
       </c>
       <c r="H101" s="3">
-        <v>26500</v>
+        <v>26300</v>
       </c>
       <c r="I101" s="3">
-        <v>26000</v>
+        <v>25800</v>
       </c>
       <c r="J101" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="K101" s="3">
         <v>-11200</v>
@@ -3155,25 +3155,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-249800</v>
+        <v>-248100</v>
       </c>
       <c r="E102" s="3">
-        <v>-22900</v>
+        <v>-22700</v>
       </c>
       <c r="F102" s="3">
-        <v>-588500</v>
+        <v>-584400</v>
       </c>
       <c r="G102" s="3">
-        <v>887700</v>
+        <v>881500</v>
       </c>
       <c r="H102" s="3">
-        <v>377400</v>
+        <v>374800</v>
       </c>
       <c r="I102" s="3">
-        <v>97100</v>
+        <v>96400</v>
       </c>
       <c r="J102" s="3">
-        <v>151800</v>
+        <v>150800</v>
       </c>
       <c r="K102" s="3">
         <v>392100</v>

--- a/AAII_Financials/Quarterly/MGYOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MGYOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>MGYOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,163 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5832700</v>
+        <v>7395400</v>
       </c>
       <c r="E8" s="3">
-        <v>7306600</v>
+        <v>5647200</v>
       </c>
       <c r="F8" s="3">
-        <v>8208200</v>
+        <v>5894100</v>
       </c>
       <c r="G8" s="3">
-        <v>7099400</v>
+        <v>7383500</v>
       </c>
       <c r="H8" s="3">
-        <v>5425400</v>
+        <v>8247500</v>
       </c>
       <c r="I8" s="3">
+        <v>7087400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5482500</v>
+      </c>
+      <c r="K8" s="3">
         <v>4713500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4611500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4054100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4498600</v>
+        <v>5425600</v>
       </c>
       <c r="E9" s="3">
-        <v>5521800</v>
+        <v>4271600</v>
       </c>
       <c r="F9" s="3">
-        <v>5965600</v>
+        <v>4546000</v>
       </c>
       <c r="G9" s="3">
-        <v>4965400</v>
+        <v>5579900</v>
       </c>
       <c r="H9" s="3">
-        <v>3987800</v>
+        <v>6000500</v>
       </c>
       <c r="I9" s="3">
+        <v>4970200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4029700</v>
+      </c>
+      <c r="K9" s="3">
         <v>3447500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3303800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2874900</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1334100</v>
+        <v>1969800</v>
       </c>
       <c r="E10" s="3">
-        <v>1784700</v>
+        <v>1375500</v>
       </c>
       <c r="F10" s="3">
-        <v>2242600</v>
+        <v>1348100</v>
       </c>
       <c r="G10" s="3">
-        <v>2134000</v>
+        <v>1803500</v>
       </c>
       <c r="H10" s="3">
-        <v>1437600</v>
+        <v>2247100</v>
       </c>
       <c r="I10" s="3">
+        <v>2117300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1452800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1266000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1307700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1179200</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -808,8 +833,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,8 +864,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,8 +899,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -895,37 +934,49 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>276900</v>
+        <v>312200</v>
       </c>
       <c r="E15" s="3">
-        <v>512400</v>
+        <v>259900</v>
       </c>
       <c r="F15" s="3">
-        <v>359100</v>
+        <v>279800</v>
       </c>
       <c r="G15" s="3">
-        <v>305600</v>
+        <v>517700</v>
       </c>
       <c r="H15" s="3">
-        <v>181300</v>
+        <v>366600</v>
       </c>
       <c r="I15" s="3">
+        <v>312200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>183200</v>
+      </c>
+      <c r="K15" s="3">
         <v>419800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>293500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>329300</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,66 +985,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5333100</v>
+        <v>6639100</v>
       </c>
       <c r="E17" s="3">
-        <v>6683700</v>
+        <v>5443900</v>
       </c>
       <c r="F17" s="3">
-        <v>6939900</v>
+        <v>5389300</v>
       </c>
       <c r="G17" s="3">
-        <v>6056600</v>
+        <v>6754100</v>
       </c>
       <c r="H17" s="3">
-        <v>4773900</v>
+        <v>6969600</v>
       </c>
       <c r="I17" s="3">
+        <v>6037000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4824200</v>
+      </c>
+      <c r="K17" s="3">
         <v>4296000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4102500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3650600</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>499500</v>
+        <v>756400</v>
       </c>
       <c r="E18" s="3">
-        <v>622900</v>
+        <v>203300</v>
       </c>
       <c r="F18" s="3">
-        <v>1268300</v>
+        <v>504800</v>
       </c>
       <c r="G18" s="3">
-        <v>1042800</v>
+        <v>629400</v>
       </c>
       <c r="H18" s="3">
-        <v>651500</v>
+        <v>1278000</v>
       </c>
       <c r="I18" s="3">
+        <v>1050400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>658300</v>
+      </c>
+      <c r="K18" s="3">
         <v>417500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>509000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>403500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,66 +1070,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>60000</v>
+        <v>-82300</v>
       </c>
       <c r="E20" s="3">
-        <v>-74500</v>
+        <v>59000</v>
       </c>
       <c r="F20" s="3">
-        <v>-171800</v>
+        <v>60600</v>
       </c>
       <c r="G20" s="3">
-        <v>-56000</v>
+        <v>-75300</v>
       </c>
       <c r="H20" s="3">
-        <v>8300</v>
+        <v>-171300</v>
       </c>
       <c r="I20" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-9700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-80300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>76800</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>836500</v>
+        <v>986300</v>
       </c>
       <c r="E21" s="3">
-        <v>1060700</v>
+        <v>522200</v>
       </c>
       <c r="F21" s="3">
-        <v>1455400</v>
+        <v>845300</v>
       </c>
       <c r="G21" s="3">
-        <v>1289300</v>
+        <v>1071800</v>
       </c>
       <c r="H21" s="3">
-        <v>792000</v>
+        <v>1469300</v>
       </c>
       <c r="I21" s="3">
+        <v>1301600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>800300</v>
+      </c>
+      <c r="K21" s="3">
         <v>836400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>749000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>834900</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1092,66 +1171,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>559500</v>
+        <v>674100</v>
       </c>
       <c r="E23" s="3">
-        <v>548300</v>
+        <v>262300</v>
       </c>
       <c r="F23" s="3">
-        <v>1096500</v>
+        <v>565400</v>
       </c>
       <c r="G23" s="3">
-        <v>986800</v>
+        <v>554100</v>
       </c>
       <c r="H23" s="3">
-        <v>659800</v>
+        <v>1106600</v>
       </c>
       <c r="I23" s="3">
+        <v>995800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>666700</v>
+      </c>
+      <c r="K23" s="3">
         <v>407800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>428700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>480300</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>104000</v>
+        <v>123700</v>
       </c>
       <c r="E24" s="3">
-        <v>682300</v>
+        <v>-13500</v>
       </c>
       <c r="F24" s="3">
-        <v>259200</v>
+        <v>105100</v>
       </c>
       <c r="G24" s="3">
-        <v>208200</v>
+        <v>689500</v>
       </c>
       <c r="H24" s="3">
-        <v>179000</v>
+        <v>261600</v>
       </c>
       <c r="I24" s="3">
+        <v>210100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>180900</v>
+      </c>
+      <c r="K24" s="3">
         <v>103100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>53800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-60300</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,66 +1276,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>455500</v>
+        <v>550300</v>
       </c>
       <c r="E26" s="3">
-        <v>-134000</v>
+        <v>275900</v>
       </c>
       <c r="F26" s="3">
-        <v>837300</v>
+        <v>460300</v>
       </c>
       <c r="G26" s="3">
-        <v>778600</v>
+        <v>-135400</v>
       </c>
       <c r="H26" s="3">
-        <v>480700</v>
+        <v>845000</v>
       </c>
       <c r="I26" s="3">
+        <v>785800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>485800</v>
+      </c>
+      <c r="K26" s="3">
         <v>304700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>374900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>540600</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>474300</v>
+        <v>506300</v>
       </c>
       <c r="E27" s="3">
-        <v>-63100</v>
+        <v>225700</v>
       </c>
       <c r="F27" s="3">
-        <v>747000</v>
+        <v>479300</v>
       </c>
       <c r="G27" s="3">
-        <v>711100</v>
+        <v>-63700</v>
       </c>
       <c r="H27" s="3">
-        <v>394500</v>
+        <v>753400</v>
       </c>
       <c r="I27" s="3">
+        <v>717200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>398700</v>
+      </c>
+      <c r="K27" s="3">
         <v>302200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>340100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>511500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,37 +1381,49 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E29" s="3">
+        <v>300</v>
+      </c>
+      <c r="F29" s="3">
         <v>2200</v>
       </c>
-      <c r="E29" s="3">
-        <v>264100</v>
-      </c>
-      <c r="F29" s="3">
-        <v>81200</v>
-      </c>
       <c r="G29" s="3">
-        <v>138300</v>
+        <v>266900</v>
       </c>
       <c r="H29" s="3">
-        <v>152800</v>
+        <v>82100</v>
       </c>
       <c r="I29" s="3">
+        <v>139700</v>
+      </c>
+      <c r="J29" s="3">
+        <v>154400</v>
+      </c>
+      <c r="K29" s="3">
         <v>14300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>56700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1451,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,66 +1486,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-60000</v>
+        <v>82300</v>
       </c>
       <c r="E32" s="3">
-        <v>74500</v>
+        <v>-59000</v>
       </c>
       <c r="F32" s="3">
-        <v>171800</v>
+        <v>-60600</v>
       </c>
       <c r="G32" s="3">
-        <v>56000</v>
+        <v>75300</v>
       </c>
       <c r="H32" s="3">
-        <v>-8300</v>
+        <v>171300</v>
       </c>
       <c r="I32" s="3">
+        <v>54500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="K32" s="3">
         <v>9700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>80300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-76800</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>476500</v>
+        <v>510400</v>
       </c>
       <c r="E33" s="3">
-        <v>201000</v>
+        <v>226000</v>
       </c>
       <c r="F33" s="3">
-        <v>828200</v>
+        <v>481500</v>
       </c>
       <c r="G33" s="3">
-        <v>849300</v>
+        <v>203100</v>
       </c>
       <c r="H33" s="3">
-        <v>547300</v>
+        <v>835500</v>
       </c>
       <c r="I33" s="3">
+        <v>856900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>553100</v>
+      </c>
+      <c r="K33" s="3">
         <v>316500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>396800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>533400</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,71 +1591,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>476500</v>
+        <v>510400</v>
       </c>
       <c r="E35" s="3">
-        <v>201000</v>
+        <v>226000</v>
       </c>
       <c r="F35" s="3">
-        <v>828200</v>
+        <v>481500</v>
       </c>
       <c r="G35" s="3">
-        <v>849300</v>
+        <v>203100</v>
       </c>
       <c r="H35" s="3">
-        <v>547300</v>
+        <v>835500</v>
       </c>
       <c r="I35" s="3">
+        <v>856900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>553100</v>
+      </c>
+      <c r="K35" s="3">
         <v>316500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>396800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>533400</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1685,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,269 +1700,325 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1450200</v>
+        <v>1049400</v>
       </c>
       <c r="E41" s="3">
-        <v>1696400</v>
+        <v>1230100</v>
       </c>
       <c r="F41" s="3">
-        <v>1715600</v>
+        <v>1465500</v>
       </c>
       <c r="G41" s="3">
-        <v>2284300</v>
+        <v>1714300</v>
       </c>
       <c r="H41" s="3">
-        <v>1421000</v>
+        <v>1733600</v>
       </c>
       <c r="I41" s="3">
+        <v>2308300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1435900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1047200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>961200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>811100</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>757500</v>
+        <v>337100</v>
       </c>
       <c r="E42" s="3">
-        <v>515900</v>
+        <v>398300</v>
       </c>
       <c r="F42" s="3">
-        <v>352400</v>
+        <v>765500</v>
       </c>
       <c r="G42" s="3">
-        <v>439600</v>
+        <v>521300</v>
       </c>
       <c r="H42" s="3">
-        <v>382100</v>
+        <v>356100</v>
       </c>
       <c r="I42" s="3">
+        <v>444200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>386100</v>
+      </c>
+      <c r="K42" s="3">
         <v>172100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>167500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>120400</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2624300</v>
+        <v>3374400</v>
       </c>
       <c r="E43" s="3">
-        <v>2711500</v>
+        <v>2554900</v>
       </c>
       <c r="F43" s="3">
-        <v>3535200</v>
+        <v>2651900</v>
       </c>
       <c r="G43" s="3">
-        <v>3489000</v>
+        <v>2740100</v>
       </c>
       <c r="H43" s="3">
-        <v>3199500</v>
+        <v>3572400</v>
       </c>
       <c r="I43" s="3">
+        <v>3525700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3233200</v>
+      </c>
+      <c r="K43" s="3">
         <v>2174600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2226300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2064000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2420800</v>
+        <v>2566400</v>
       </c>
       <c r="E44" s="3">
-        <v>2841600</v>
+        <v>2294700</v>
       </c>
       <c r="F44" s="3">
-        <v>3380200</v>
+        <v>2446300</v>
       </c>
       <c r="G44" s="3">
-        <v>2942900</v>
+        <v>2871500</v>
       </c>
       <c r="H44" s="3">
-        <v>2507000</v>
+        <v>3415700</v>
       </c>
       <c r="I44" s="3">
+        <v>2973900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2533400</v>
+      </c>
+      <c r="K44" s="3">
         <v>2003000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1721200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1727500</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>362000</v>
+        <v>520800</v>
       </c>
       <c r="E45" s="3">
-        <v>389000</v>
+        <v>311300</v>
       </c>
       <c r="F45" s="3">
-        <v>822800</v>
+        <v>365800</v>
       </c>
       <c r="G45" s="3">
-        <v>775300</v>
+        <v>393100</v>
       </c>
       <c r="H45" s="3">
-        <v>647600</v>
+        <v>831400</v>
       </c>
       <c r="I45" s="3">
+        <v>783500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>654400</v>
+      </c>
+      <c r="K45" s="3">
         <v>281100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>207600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>235100</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7614900</v>
+        <v>7848000</v>
       </c>
       <c r="E46" s="3">
-        <v>8154500</v>
+        <v>6789300</v>
       </c>
       <c r="F46" s="3">
-        <v>9806000</v>
+        <v>7695000</v>
       </c>
       <c r="G46" s="3">
-        <v>9931100</v>
+        <v>8240300</v>
       </c>
       <c r="H46" s="3">
-        <v>8157200</v>
+        <v>9909300</v>
       </c>
       <c r="I46" s="3">
+        <v>10035600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>8243100</v>
+      </c>
+      <c r="K46" s="3">
         <v>5678000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5283800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4958100</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1424300</v>
+        <v>1569600</v>
       </c>
       <c r="E47" s="3">
-        <v>1492200</v>
+        <v>1435200</v>
       </c>
       <c r="F47" s="3">
-        <v>1689000</v>
+        <v>1439300</v>
       </c>
       <c r="G47" s="3">
-        <v>1454700</v>
+        <v>1507900</v>
       </c>
       <c r="H47" s="3">
-        <v>1289200</v>
+        <v>1706800</v>
       </c>
       <c r="I47" s="3">
+        <v>1470000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1302700</v>
+      </c>
+      <c r="K47" s="3">
         <v>1249300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1160900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1082700</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10583200</v>
+        <v>11260900</v>
       </c>
       <c r="E48" s="3">
-        <v>10907900</v>
+        <v>10707800</v>
       </c>
       <c r="F48" s="3">
-        <v>10887300</v>
+        <v>10694600</v>
       </c>
       <c r="G48" s="3">
-        <v>10354500</v>
+        <v>11022700</v>
       </c>
       <c r="H48" s="3">
-        <v>9756900</v>
+        <v>11001900</v>
       </c>
       <c r="I48" s="3">
+        <v>10463500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>9859600</v>
+      </c>
+      <c r="K48" s="3">
         <v>9649300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>9213200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>9095900</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1504700</v>
+        <v>1697800</v>
       </c>
       <c r="E49" s="3">
-        <v>1574900</v>
+        <v>1605500</v>
       </c>
       <c r="F49" s="3">
-        <v>1362000</v>
+        <v>1520500</v>
       </c>
       <c r="G49" s="3">
-        <v>1251400</v>
+        <v>1591500</v>
       </c>
       <c r="H49" s="3">
-        <v>1256500</v>
+        <v>1376400</v>
       </c>
       <c r="I49" s="3">
+        <v>1264600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1269700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1247800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1106200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1077200</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +2046,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,37 +2081,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>566300</v>
+        <v>666100</v>
       </c>
       <c r="E52" s="3">
-        <v>578500</v>
+        <v>602100</v>
       </c>
       <c r="F52" s="3">
-        <v>612700</v>
+        <v>572200</v>
       </c>
       <c r="G52" s="3">
-        <v>637700</v>
+        <v>584600</v>
       </c>
       <c r="H52" s="3">
-        <v>572000</v>
+        <v>619200</v>
       </c>
       <c r="I52" s="3">
+        <v>644400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>578000</v>
+      </c>
+      <c r="K52" s="3">
         <v>712300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>738900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>733000</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,37 +2151,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21693400</v>
+        <v>23042400</v>
       </c>
       <c r="E54" s="3">
-        <v>22707900</v>
+        <v>21139800</v>
       </c>
       <c r="F54" s="3">
-        <v>24357100</v>
+        <v>21921700</v>
       </c>
       <c r="G54" s="3">
-        <v>23629400</v>
+        <v>22947000</v>
       </c>
       <c r="H54" s="3">
-        <v>21031700</v>
+        <v>24613500</v>
       </c>
       <c r="I54" s="3">
+        <v>23878100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>21253100</v>
+      </c>
+      <c r="K54" s="3">
         <v>18536900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>17503000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>16946900</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2205,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,182 +2220,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2155700</v>
+        <v>2938300</v>
       </c>
       <c r="E57" s="3">
-        <v>2854700</v>
+        <v>1982300</v>
       </c>
       <c r="F57" s="3">
-        <v>3021100</v>
+        <v>2178400</v>
       </c>
       <c r="G57" s="3">
-        <v>3002600</v>
+        <v>2884700</v>
       </c>
       <c r="H57" s="3">
-        <v>2806500</v>
+        <v>3052900</v>
       </c>
       <c r="I57" s="3">
+        <v>3034200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2836000</v>
+      </c>
+      <c r="K57" s="3">
         <v>2417500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1890000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2016700</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>939300</v>
+        <v>535400</v>
       </c>
       <c r="E58" s="3">
-        <v>1335800</v>
+        <v>327700</v>
       </c>
       <c r="F58" s="3">
-        <v>1529500</v>
+        <v>949200</v>
       </c>
       <c r="G58" s="3">
-        <v>1568400</v>
+        <v>1349800</v>
       </c>
       <c r="H58" s="3">
-        <v>496200</v>
+        <v>1545600</v>
       </c>
       <c r="I58" s="3">
+        <v>1584900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>501400</v>
+      </c>
+      <c r="K58" s="3">
         <v>529000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>998600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>929900</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3171900</v>
+        <v>2559900</v>
       </c>
       <c r="E59" s="3">
-        <v>3026600</v>
+        <v>3392200</v>
       </c>
       <c r="F59" s="3">
-        <v>3141000</v>
+        <v>3205300</v>
       </c>
       <c r="G59" s="3">
-        <v>3807700</v>
+        <v>3058500</v>
       </c>
       <c r="H59" s="3">
-        <v>2878400</v>
+        <v>3174000</v>
       </c>
       <c r="I59" s="3">
+        <v>3847800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2908700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1786500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1856300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1866100</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6266900</v>
+        <v>6033600</v>
       </c>
       <c r="E60" s="3">
-        <v>7217000</v>
+        <v>5702100</v>
       </c>
       <c r="F60" s="3">
-        <v>7691600</v>
+        <v>6332900</v>
       </c>
       <c r="G60" s="3">
-        <v>8378700</v>
+        <v>7293000</v>
       </c>
       <c r="H60" s="3">
-        <v>6181000</v>
+        <v>7772500</v>
       </c>
       <c r="I60" s="3">
+        <v>8466900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>6246100</v>
+      </c>
+      <c r="K60" s="3">
         <v>4733000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4744900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4812700</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1787000</v>
+        <v>2676800</v>
       </c>
       <c r="E61" s="3">
-        <v>1853700</v>
+        <v>2355500</v>
       </c>
       <c r="F61" s="3">
-        <v>2095400</v>
+        <v>1805800</v>
       </c>
       <c r="G61" s="3">
-        <v>2490200</v>
+        <v>1873200</v>
       </c>
       <c r="H61" s="3">
-        <v>3124800</v>
+        <v>2117500</v>
       </c>
       <c r="I61" s="3">
+        <v>2516400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>3157700</v>
+      </c>
+      <c r="K61" s="3">
         <v>2469500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2072700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2097700</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2153600</v>
+        <v>2331600</v>
       </c>
       <c r="E62" s="3">
-        <v>2202600</v>
+        <v>2209700</v>
       </c>
       <c r="F62" s="3">
-        <v>2607300</v>
+        <v>2176300</v>
       </c>
       <c r="G62" s="3">
-        <v>2474800</v>
+        <v>2225800</v>
       </c>
       <c r="H62" s="3">
-        <v>2296200</v>
+        <v>2634700</v>
       </c>
       <c r="I62" s="3">
+        <v>2500900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2320400</v>
+      </c>
+      <c r="K62" s="3">
         <v>2633300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2452800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2415300</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2461,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2496,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,37 +2531,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11210900</v>
+        <v>12079800</v>
       </c>
       <c r="E66" s="3">
-        <v>12352800</v>
+        <v>11211900</v>
       </c>
       <c r="F66" s="3">
-        <v>13567600</v>
+        <v>11328900</v>
       </c>
       <c r="G66" s="3">
-        <v>14361100</v>
+        <v>12482900</v>
       </c>
       <c r="H66" s="3">
-        <v>12544800</v>
+        <v>13710400</v>
       </c>
       <c r="I66" s="3">
+        <v>14512300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>12676800</v>
+      </c>
+      <c r="K66" s="3">
         <v>10622000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>10106900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>10111000</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2585,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2616,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,8 +2651,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2351,8 +2686,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,37 +2721,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10256900</v>
+        <v>10734500</v>
       </c>
       <c r="E72" s="3">
-        <v>7578100</v>
+        <v>7621800</v>
       </c>
       <c r="F72" s="3">
-        <v>10564400</v>
+        <v>10364800</v>
       </c>
       <c r="G72" s="3">
-        <v>6506500</v>
+        <v>7657900</v>
       </c>
       <c r="H72" s="3">
-        <v>8261800</v>
+        <v>10675600</v>
       </c>
       <c r="I72" s="3">
+        <v>6575000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>8348800</v>
+      </c>
+      <c r="K72" s="3">
         <v>5636300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>7173300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>4954000</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2791,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2826,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,37 +2861,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10482500</v>
+        <v>10962600</v>
       </c>
       <c r="E76" s="3">
-        <v>10355100</v>
+        <v>9927900</v>
       </c>
       <c r="F76" s="3">
-        <v>10789600</v>
+        <v>10592800</v>
       </c>
       <c r="G76" s="3">
-        <v>9268300</v>
+        <v>10464100</v>
       </c>
       <c r="H76" s="3">
-        <v>8487000</v>
+        <v>10903100</v>
       </c>
       <c r="I76" s="3">
+        <v>9365900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>8576300</v>
+      </c>
+      <c r="K76" s="3">
         <v>7914900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>7396100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6835900</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,71 +2931,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>476500</v>
+        <v>510400</v>
       </c>
       <c r="E81" s="3">
-        <v>201000</v>
+        <v>226000</v>
       </c>
       <c r="F81" s="3">
-        <v>828200</v>
+        <v>481500</v>
       </c>
       <c r="G81" s="3">
-        <v>849300</v>
+        <v>203100</v>
       </c>
       <c r="H81" s="3">
-        <v>547300</v>
+        <v>835500</v>
       </c>
       <c r="I81" s="3">
+        <v>856900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>553100</v>
+      </c>
+      <c r="K81" s="3">
         <v>316500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>396800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>533400</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,37 +3025,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>276900</v>
+        <v>312200</v>
       </c>
       <c r="E83" s="3">
-        <v>512400</v>
+        <v>259900</v>
       </c>
       <c r="F83" s="3">
-        <v>358900</v>
+        <v>279800</v>
       </c>
       <c r="G83" s="3">
-        <v>284100</v>
+        <v>517700</v>
       </c>
       <c r="H83" s="3">
-        <v>150600</v>
+        <v>362700</v>
       </c>
       <c r="I83" s="3">
+        <v>287100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>152200</v>
+      </c>
+      <c r="K83" s="3">
         <v>428700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>320300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>354500</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +3091,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +3126,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +3161,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +3196,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,37 +3231,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>762800</v>
+        <v>641900</v>
       </c>
       <c r="E89" s="3">
-        <v>1793600</v>
+        <v>28000</v>
       </c>
       <c r="F89" s="3">
-        <v>1172400</v>
+        <v>770800</v>
       </c>
       <c r="G89" s="3">
-        <v>1005000</v>
+        <v>1812500</v>
       </c>
       <c r="H89" s="3">
-        <v>-13100</v>
+        <v>1184800</v>
       </c>
       <c r="I89" s="3">
+        <v>1015600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="K89" s="3">
         <v>857100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>669300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>985500</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,37 +3285,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-121197000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-91752000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-85204000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-209508000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-159144000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-128193000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-119077000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-186252000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-104505000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-110081000</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3351,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,37 +3386,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-568600</v>
+        <v>-174200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1225500</v>
+        <v>-180300</v>
       </c>
       <c r="F94" s="3">
-        <v>-464800</v>
+        <v>-574600</v>
       </c>
       <c r="G94" s="3">
-        <v>-384800</v>
+        <v>-1238400</v>
       </c>
       <c r="H94" s="3">
-        <v>-360200</v>
+        <v>-469700</v>
       </c>
       <c r="I94" s="3">
+        <v>-388800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-364000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-513900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-291100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-297100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,37 +3440,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-660900</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-100</v>
       </c>
-      <c r="F96" s="3">
-        <v>-544900</v>
-      </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-550700</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-180100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3506,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3541,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,91 +3576,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-310600</v>
+        <v>-774400</v>
       </c>
       <c r="E100" s="3">
-        <v>-401200</v>
+        <v>13500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1516700</v>
+        <v>-313800</v>
       </c>
       <c r="G100" s="3">
-        <v>114800</v>
+        <v>-405400</v>
       </c>
       <c r="H100" s="3">
-        <v>722200</v>
+        <v>-1532700</v>
       </c>
       <c r="I100" s="3">
+        <v>116000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>729800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-272600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-236700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-285100</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-131700</v>
+        <v>117800</v>
       </c>
       <c r="E101" s="3">
-        <v>-189600</v>
+        <v>-95900</v>
       </c>
       <c r="F101" s="3">
-        <v>224700</v>
+        <v>-133100</v>
       </c>
       <c r="G101" s="3">
-        <v>146100</v>
+        <v>-191600</v>
       </c>
       <c r="H101" s="3">
-        <v>26300</v>
+        <v>227100</v>
       </c>
       <c r="I101" s="3">
+        <v>147700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>26500</v>
+      </c>
+      <c r="K101" s="3">
         <v>25800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>9300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-248100</v>
+        <v>-188900</v>
       </c>
       <c r="E102" s="3">
-        <v>-22700</v>
+        <v>-234700</v>
       </c>
       <c r="F102" s="3">
-        <v>-584400</v>
+        <v>-250700</v>
       </c>
       <c r="G102" s="3">
-        <v>881500</v>
+        <v>-22900</v>
       </c>
       <c r="H102" s="3">
-        <v>374800</v>
+        <v>-590500</v>
       </c>
       <c r="I102" s="3">
+        <v>890800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>378700</v>
+      </c>
+      <c r="K102" s="3">
         <v>96400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>150800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>392100</v>
       </c>
     </row>
